--- a/Results/female_all_results_p_value.xlsx
+++ b/Results/female_all_results_p_value.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliya/my_docs/proj/Cumulative_effects_HRS/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55652F0-4039-B148-88A8-4BD8C72D43A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>female_all_results</t>
   </si>
@@ -241,11 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -255,12 +261,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,42 +406,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -444,26 +452,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -662,7 +729,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -681,7 +748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -763,7 +830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +856,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +882,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,7 +908,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +934,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +960,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,9 +999,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -951,7 +1024,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -970,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1173,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1199,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1225,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1251,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1277,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,9 +1290,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1233,7 +1312,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1252,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1503,114 +1582,124 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.8516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s" s="4">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>1.38696198073793</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="9">
+        <v>1.3869619807379301</v>
+      </c>
+      <c r="D3" s="9">
         <v>1.3326971248857</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>1.51045768554649</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10">
-        <v>1.92366353601249</v>
+        <v>1.9236635360124901</v>
       </c>
       <c r="D4" s="10">
-        <v>1.77613538148049</v>
+        <v>1.7761353814804901</v>
       </c>
       <c r="E4" s="10">
         <v>2.28173564752937</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="10">
-        <v>2.66804818818121</v>
+        <v>2.6680481881812099</v>
       </c>
       <c r="D5" s="10">
-        <v>2.36719438522311</v>
+        <v>2.3671943852231099</v>
       </c>
       <c r="E5" s="10">
-        <v>3.44722408018824</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+        <v>3.4472240801882399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="10">
@@ -1620,133 +1709,133 @@
         <v>3.15504194294902</v>
       </c>
       <c r="E6" s="10">
-        <v>5.20859212804294</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+        <v>5.2085921280429401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="10">
-        <v>5.13242701192837</v>
+        <v>5.1324270119283701</v>
       </c>
       <c r="D7" s="10">
-        <v>4.20523062224774</v>
+        <v>4.2052306222477398</v>
       </c>
       <c r="E7" s="10">
-        <v>7.87076709560993</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+        <v>7.8707670956099296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="9">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="10">
-        <v>0.194839594927679</v>
+        <v>0.19483959492767899</v>
       </c>
       <c r="D8" s="10">
-        <v>0.96670781388574</v>
+        <v>0.96670781388574001</v>
       </c>
       <c r="E8" s="10">
-        <v>1.51056944959121</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+        <v>1.5105694495912101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10">
         <v>0.270235110507069</v>
       </c>
       <c r="D9" s="10">
-        <v>0.973179964609951</v>
+        <v>0.97317996460995104</v>
       </c>
       <c r="E9" s="10">
-        <v>1.39041857645229</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+        <v>1.3904185764522901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="9">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10">
-        <v>0.374805824133819</v>
+        <v>0.37480582413381902</v>
       </c>
       <c r="D10" s="10">
-        <v>0.979744465479554</v>
+        <v>0.97974446547955396</v>
       </c>
       <c r="E10" s="10">
-        <v>1.28006502038536</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
+        <v>1.2800650203853601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="9">
+      <c r="B11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="10">
-        <v>0.519841428232754</v>
+        <v>0.51984142823275403</v>
       </c>
       <c r="D11" s="10">
-        <v>0.986402104883248</v>
+        <v>0.98640210488324798</v>
       </c>
       <c r="E11" s="10">
-        <v>1.17869649322094</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+        <v>1.1786964932209401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="10">
-        <v>0.7210002969713351</v>
+        <v>0.72100029697133505</v>
       </c>
       <c r="D12" s="10">
-        <v>0.993153680622258</v>
+        <v>0.99315368062225795</v>
       </c>
       <c r="E12" s="10">
-        <v>1.08556878098437</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
+        <v>1.0855687809843699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="9">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="10">
-        <v>2.51650660062278</v>
+        <v>2.5165066006227801</v>
       </c>
       <c r="D13" s="10">
-        <v>2.22686215991404</v>
+        <v>2.2268621599140399</v>
       </c>
       <c r="E13" s="10">
-        <v>3.00667190433352</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
+        <v>3.0066719043335199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="10">
@@ -1756,52 +1845,52 @@
         <v>1.89737971996802</v>
       </c>
       <c r="E14" s="10">
-        <v>2.41210757758217</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+        <v>2.4121075775821699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="10">
         <v>1.73971794950436</v>
       </c>
       <c r="D15" s="10">
-        <v>1.61664766894322</v>
+        <v>1.6166476689432201</v>
       </c>
       <c r="E15" s="10">
         <v>1.93527579002459</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="9">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="10">
-        <v>1.44650263644158</v>
+        <v>1.4465026364415801</v>
       </c>
       <c r="D16" s="10">
-        <v>1.37745275973789</v>
+        <v>1.3774527597378901</v>
       </c>
       <c r="E16" s="10">
         <v>1.55283436229814</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="9">
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="10">
-        <v>1.20270637997874</v>
+        <v>1.2027063799787401</v>
       </c>
       <c r="D17" s="10">
         <v>1.17364905503112</v>
@@ -1810,164 +1899,164 @@
         <v>1.24607448553092</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="10">
-        <v>3.39229097178633</v>
+        <v>3.3922909717863301</v>
       </c>
       <c r="D18" s="10">
-        <v>2.64722850157832</v>
+        <v>2.6472285015783199</v>
       </c>
       <c r="E18" s="10">
-        <v>3.76168696434037</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+        <v>3.7616869643403699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="9">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="10">
         <v>2.65701788178739</v>
       </c>
       <c r="D19" s="10">
-        <v>2.17842085026033</v>
+        <v>2.1784208502603302</v>
       </c>
       <c r="E19" s="10">
-        <v>2.88518911333323</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+        <v>2.8851891133332299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="9">
+      <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="10">
-        <v>2.08111393829533</v>
+        <v>2.0811139382953301</v>
       </c>
       <c r="D20" s="10">
         <v>1.79282739041309</v>
       </c>
       <c r="E20" s="10">
-        <v>2.21325024134167</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+        <v>2.2132502413416701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="10">
-        <v>1.6300361596564</v>
+        <v>1.6300361596563999</v>
       </c>
       <c r="D21" s="10">
-        <v>1.47564146970935</v>
+        <v>1.4756414697093501</v>
       </c>
       <c r="E21" s="10">
-        <v>1.69805859003879</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+        <v>1.6980585900387899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="9">
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="10">
         <v>1.27672869461621</v>
       </c>
       <c r="D22" s="10">
-        <v>1.21469780027818</v>
+        <v>1.2146978002781801</v>
       </c>
       <c r="E22" s="10">
-        <v>1.302992921276</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+        <v>1.3029929212760001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="9">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="10">
-        <v>2.63572561502837</v>
+        <v>2.6357256150283699</v>
       </c>
       <c r="D23" s="10">
-        <v>2.16404625566112</v>
+        <v>2.1640462556611202</v>
       </c>
       <c r="E23" s="10">
-        <v>3.59361106413924</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+        <v>3.5936110641392398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="9">
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="10">
-        <v>2.17130162701605</v>
+        <v>2.1713016270160499</v>
       </c>
       <c r="D24" s="10">
-        <v>1.85443979422671</v>
+        <v>1.8544397942267099</v>
       </c>
       <c r="E24" s="10">
-        <v>2.77884741448536</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+        <v>2.7788474144853601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s" s="9">
+      <c r="B25" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="10">
-        <v>1.78871075524749</v>
+        <v>1.7887107552474899</v>
       </c>
       <c r="D25" s="10">
         <v>1.58912911257171</v>
       </c>
       <c r="E25" s="10">
-        <v>2.15013583437294</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+        <v>2.1501358343729402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s" s="9">
+      <c r="B26" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="10">
-        <v>1.4735337210312</v>
+        <v>1.4735337210312001</v>
       </c>
       <c r="D26" s="10">
-        <v>1.3617766284964</v>
+        <v>1.3617766284963999</v>
       </c>
       <c r="E26" s="10">
-        <v>1.66474253992506</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+        <v>1.6647425399250599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="10">
@@ -1977,116 +2066,116 @@
         <v>1.16695152289668</v>
       </c>
       <c r="E27" s="10">
-        <v>1.28979549249496</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+        <v>1.2897954924949599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="10">
         <v>3.35085045846676</v>
       </c>
       <c r="D28" s="10">
-        <v>2.80964456681658</v>
+        <v>2.8096445668165799</v>
       </c>
       <c r="E28" s="10">
-        <v>4.0603860542368</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+        <v>4.0603860542368002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B29" t="s" s="9">
+      <c r="B29" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="10">
-        <v>2.6310193205442</v>
+        <v>2.6310193205441998</v>
       </c>
       <c r="D29" s="10">
         <v>2.28471600668315</v>
       </c>
       <c r="E29" s="10">
-        <v>3.06797548459473</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+        <v>3.0679754845947298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="10">
-        <v>2.06582261753462</v>
+        <v>2.0658226175346202</v>
       </c>
       <c r="D30" s="10">
-        <v>1.85805317870309</v>
+        <v>1.8580531787030901</v>
       </c>
       <c r="E30" s="10">
-        <v>2.31812808524669</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
+        <v>2.3181280852466899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B31" t="s" s="9">
+      <c r="B31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="10">
         <v>1.62204171356479</v>
       </c>
       <c r="D31" s="10">
-        <v>1.5112227955981</v>
+        <v>1.5112227955980999</v>
       </c>
       <c r="E31" s="10">
-        <v>1.751555733721</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
+        <v>1.7515557337209999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B32" t="s" s="9">
+      <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="10">
-        <v>1.27359401441935</v>
+        <v>1.2735940144193501</v>
       </c>
       <c r="D32" s="10">
-        <v>1.22925691580696</v>
+        <v>1.2292569158069599</v>
       </c>
       <c r="E32" s="10">
-        <v>1.32346202390508</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="8">
+        <v>1.3234620239050801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s" s="9">
+      <c r="B33" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="10">
-        <v>2.13884594214579</v>
+        <v>2.1388459421457902</v>
       </c>
       <c r="D33" s="10">
-        <v>1.3977848661955</v>
+        <v>1.3977848661954999</v>
       </c>
       <c r="E33" s="10">
-        <v>2.50266380302325</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="8">
+        <v>2.5026638030232502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B34" t="s" s="9">
+      <c r="B34" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="10">
@@ -2099,32 +2188,32 @@
         <v>2.08311923151774</v>
       </c>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="8">
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B35" t="s" s="9">
+      <c r="B35" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="10">
         <v>1.57800255651332</v>
       </c>
       <c r="D35" s="10">
-        <v>1.22254273115755</v>
+        <v>1.2225427311575501</v>
       </c>
       <c r="E35" s="10">
-        <v>1.73392243950421</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="8">
+        <v>1.7339224395042101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s" s="9">
+      <c r="B36" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="10">
-        <v>1.35541348353179</v>
+        <v>1.3554134835317899</v>
       </c>
       <c r="D36" s="10">
         <v>1.14334153585647</v>
@@ -2133,15 +2222,15 @@
         <v>1.44327519100375</v>
       </c>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="8">
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B37" t="s" s="9">
+      <c r="B37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="10">
-        <v>1.16422226551969</v>
+        <v>1.1642222655196901</v>
       </c>
       <c r="D37" s="10">
         <v>1.06927143515764</v>
@@ -2155,7 +2244,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
